--- a/biology/Zoologie/Le_Cœur_de_l'océan/Le_Cœur_de_l'océan.xlsx
+++ b/biology/Zoologie/Le_Cœur_de_l'océan/Le_Cœur_de_l'océan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_C%C5%93ur_de_l%27oc%C3%A9an</t>
+          <t>Le_Cœur_de_l'océan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cœur de l'océan (Beneath the Blue) est un téléfilm américain réalisé par Michael D. Sellers et diffusé en 2010.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_C%C5%93ur_de_l%27oc%C3%A9an</t>
+          <t>Le_Cœur_de_l'océan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Aux États-Unis, des experts en dauphins confrontent la Marine quand leur programme de sonars est suspecté de provoquer la mort des animaux.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_C%C5%93ur_de_l%27oc%C3%A9an</t>
+          <t>Le_Cœur_de_l'océan</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Beneath the Blue
 Scénario : Wendell Morris
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_C%C5%93ur_de_l%27oc%C3%A9an</t>
+          <t>Le_Cœur_de_l'océan</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Wesley (VF : Stéphane Pouplard) : Craig Morrison
 Caitlin Wachs : Alyssa
@@ -595,7 +613,7 @@
 Tah Kevin Njokom : Marine
 Adam Rizzieri : Officier de la marine
 Jane Wall : Michelle Waters
-Souce VF[1]
+Souce VF
 </t>
         </is>
       </c>
